--- a/dataset/Analysis.xlsx
+++ b/dataset/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABFC3E1-FB42-E647-A822-62C64145774D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF0D0BC-3614-774C-8C8F-AD3FAF337EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="27300" windowHeight="17300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="27300" windowHeight="17300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,21 @@
     <sheet name="ch2_confidence" sheetId="3" r:id="rId6"/>
     <sheet name="ch3_confidence" sheetId="4" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">ch3_testing!$A$2</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">ch3_testing!$A$3</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">ch3_testing!$B$5:$J$5</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">ch3_testing!$B$6:$J$6</definedName>
+    <definedName name="_xlchart.v2.12" hidden="1">ch3_testing!$B$7:$J$7</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">ch3_testing!$A$4</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">ch3_testing!$A$5</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">ch3_testing!$A$6</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">ch3_testing!$A$7</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">ch3_testing!$B$1:$J$1</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">ch3_testing!$B$2:$J$2</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">ch3_testing!$B$3:$J$3</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">ch3_testing!$B$4:$J$4</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -206,12 +221,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2399,6 +2413,7666 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ch1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch1_testing!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shared_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch1_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch1_testing!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBCF-6548-ADEB-837FC2516BAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch1_testing!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shared_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch1_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch1_testing!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CBCF-6548-ADEB-837FC2516BAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch1_testing!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shared_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch1_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch1_testing!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CBCF-6548-ADEB-837FC2516BAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch1_testing!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>separate_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch1_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch1_testing!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CBCF-6548-ADEB-837FC2516BAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch1_testing!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>separate_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch1_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch1_testing!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CBCF-6548-ADEB-837FC2516BAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch1_testing!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>separate_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch1_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch1_testing!$B$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CBCF-6548-ADEB-837FC2516BAF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1422915503"/>
+        <c:axId val="1405924831"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1422915503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405924831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1405924831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1422915503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ch2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch2_testing!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shared_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch2_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch2_testing!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-928A-8341-A6FC-85BA8F00F07D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch2_testing!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shared_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch2_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch2_testing!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-928A-8341-A6FC-85BA8F00F07D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch2_testing!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shared_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch2_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch2_testing!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-928A-8341-A6FC-85BA8F00F07D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch2_testing!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>separate_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch2_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch2_testing!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-928A-8341-A6FC-85BA8F00F07D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch2_testing!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>separate_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch2_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch2_testing!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-928A-8341-A6FC-85BA8F00F07D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch2_testing!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>separate_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch2_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch2_testing!$B$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-928A-8341-A6FC-85BA8F00F07D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="410298191"/>
+        <c:axId val="410121983"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="410298191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410121983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="410121983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410298191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ch3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch3_testing!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shared_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch3_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch3_testing!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F985-C947-A3A5-1FE50668843F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch3_testing!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shared_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch3_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch3_testing!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F985-C947-A3A5-1FE50668843F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch3_testing!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>shared_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch3_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch3_testing!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F985-C947-A3A5-1FE50668843F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch3_testing!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>separate_1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch3_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch3_testing!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F985-C947-A3A5-1FE50668843F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch3_testing!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>separate_2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch3_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch3_testing!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F985-C947-A3A5-1FE50668843F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch3_testing!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>separate_3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch3_testing!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch3_testing!$B$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F985-C947-A3A5-1FE50668843F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="515487695"/>
+        <c:axId val="667274159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="515487695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="667274159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="667274159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515487695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ch1 Confidence Graph </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch1_confidence!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>highly confident</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch1_confidence!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch1_confidence!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5F2B-F242-9E4B-523F1C2725BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch1_confidence!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Very confident</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch1_confidence!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch1_confidence!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5F2B-F242-9E4B-523F1C2725BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch1_confidence!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Confident</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch1_confidence!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch1_confidence!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F2B-F242-9E4B-523F1C2725BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="163"/>
+        <c:axId val="916220367"/>
+        <c:axId val="1418024303"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="916220367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1418024303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1418024303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="916220367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr anchor="ctr" anchorCtr="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Ch2 Confidence Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch2_confidence!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reliable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch2_confidence!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch2_confidence!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07A0-C748-86CF-2119DB125496}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1378041279"/>
+        <c:axId val="923246159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1378041279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923246159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="923246159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1378041279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Ch3 Confidence Graph</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch3_confidence!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Confident</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch3_confidence!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch3_confidence!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-773D-A54F-89BA-7C9EB5694DCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ch3_confidence!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Highly confident</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>ch3_confidence!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>EC-AC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>EC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>EC-APC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>EIC-AC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EIC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>EIC-APC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>EPC-AC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>EPC-AIC</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>EPC-APC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ch3_confidence!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-773D-A54F-89BA-7C9EB5694DCE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1377868911"/>
+        <c:axId val="1377987631"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1377868911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377987631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1377987631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377868911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2504,6 +10178,252 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E9F938-7235-BAAA-A59A-0C1010F5CC6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1206500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CEAAF92-DA5F-E0AE-C23F-BCD08CFA6AC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03CD46B-8BBD-26A5-A079-40F21687BB26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>901700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24E6810-EE3E-4C01-3A72-82081017E8F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEAFB78-3EB0-3039-C3F8-EF437AE9F2BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663568D6-C52B-8D90-DF35-1BE100EF0A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3343,13 +11263,12 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -3385,31 +11304,31 @@
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2">
         <v>13</v>
       </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>0</v>
       </c>
     </row>
@@ -3417,31 +11336,31 @@
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>12</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
     </row>
@@ -3449,31 +11368,31 @@
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>12</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
     </row>
@@ -3481,31 +11400,31 @@
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
@@ -3513,31 +11432,31 @@
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>12</v>
       </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>1</v>
       </c>
     </row>
@@ -3545,36 +11464,37 @@
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>11</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3582,7 +11502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3812,6 +11734,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3819,8 +11742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4051,6 +11974,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4058,7 +11982,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4192,6 +12118,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4199,7 +12126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4269,6 +12198,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4276,7 +12206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" activeCellId="1" sqref="H30 K33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4378,5 +12310,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataset/Analysis.xlsx
+++ b/dataset/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF0D0BC-3614-774C-8C8F-AD3FAF337EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C0EE29-95A2-F849-B54B-57CE3B3F4F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="760" windowWidth="27300" windowHeight="17300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="760" windowWidth="27300" windowHeight="17300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,6 @@
     <sheet name="ch2_confidence" sheetId="3" r:id="rId6"/>
     <sheet name="ch3_confidence" sheetId="4" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">ch3_testing!$A$2</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">ch3_testing!$A$3</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">ch3_testing!$B$5:$J$5</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">ch3_testing!$B$6:$J$6</definedName>
-    <definedName name="_xlchart.v2.12" hidden="1">ch3_testing!$B$7:$J$7</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">ch3_testing!$A$4</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">ch3_testing!$A$5</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">ch3_testing!$A$6</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">ch3_testing!$A$7</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">ch3_testing!$B$1:$J$1</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">ch3_testing!$B$2:$J$2</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">ch3_testing!$B$3:$J$3</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">ch3_testing!$B$4:$J$4</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5080,7 +5065,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Ch1 Confidence Graph </a:t>
             </a:r>
           </a:p>
@@ -5120,7 +5105,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -5247,29 +5232,11 @@
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5405,26 +5372,11 @@
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="6">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1</c:v>
@@ -5563,29 +5515,14 @@
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5605,6 +5542,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="163"/>
+        <c:overlap val="100"/>
         <c:axId val="916220367"/>
         <c:axId val="1418024303"/>
       </c:barChart>
@@ -5725,6 +5663,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.145956607495069"/>
+          <c:y val="0.12078904885843243"/>
+          <c:w val="0.11130418239140225"/>
+          <c:h val="0.14562909761802786"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10313,16 +10261,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11263,7 +11211,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="C1" sqref="C1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11742,7 +11690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
@@ -11982,8 +11930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12027,29 +11975,11 @@
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
         <v>8</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -12059,26 +11989,11 @@
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
       <c r="H3">
         <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -12091,29 +12006,14 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
         <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
